--- a/data/trans_orig/P13_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>55134</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42313</v>
+        <v>41950</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71910</v>
+        <v>71280</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05343848816684031</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04101244023177336</v>
+        <v>0.04066022826579271</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06969891621359982</v>
+        <v>0.06908787786096278</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>88</v>
@@ -765,19 +765,19 @@
         <v>93927</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>76646</v>
+        <v>75663</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>115653</v>
+        <v>114505</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07142152140204801</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05828060348558825</v>
+        <v>0.0575331440227986</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08794115133840949</v>
+        <v>0.08706880258909903</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>141</v>
@@ -786,19 +786,19 @@
         <v>149061</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>127004</v>
+        <v>127942</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>172860</v>
+        <v>173740</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06351576646433499</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05411724013607204</v>
+        <v>0.05451696298840553</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07365647728404326</v>
+        <v>0.07403176849752777</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>976589</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>959813</v>
+        <v>960443</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>989410</v>
+        <v>989773</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9465615118331597</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9303010837864001</v>
+        <v>0.930912122139037</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9589875597682266</v>
+        <v>0.9593397717342061</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1203</v>
@@ -836,19 +836,19 @@
         <v>1221186</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1199460</v>
+        <v>1200608</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1238467</v>
+        <v>1239450</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.928578478597952</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9120588486615907</v>
+        <v>0.9129311974109011</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9417193965144117</v>
+        <v>0.9424668559772014</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2188</v>
@@ -857,19 +857,19 @@
         <v>2197774</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2173975</v>
+        <v>2173095</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2219831</v>
+        <v>2218893</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.936484233535665</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9263435227159568</v>
+        <v>0.9259682315024721</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.945882759863928</v>
+        <v>0.9454830370115944</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>38561</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26371</v>
+        <v>26989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52052</v>
+        <v>52207</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02277088846425052</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01557254112835629</v>
+        <v>0.0159375662689811</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03073780099853306</v>
+        <v>0.03082972766615014</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -982,19 +982,19 @@
         <v>51585</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38763</v>
+        <v>38972</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>67355</v>
+        <v>68292</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03249115380677978</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02441476519247735</v>
+        <v>0.02454649713796352</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04242401861525266</v>
+        <v>0.04301384650415754</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -1003,19 +1003,19 @@
         <v>90146</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71464</v>
+        <v>72487</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>111801</v>
+        <v>108392</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02747439370074658</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02178055178636414</v>
+        <v>0.02209223413813081</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03407439464429166</v>
+        <v>0.03303533158974364</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1654852</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1641361</v>
+        <v>1641206</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1667042</v>
+        <v>1666424</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9772291115357494</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.969262199001467</v>
+        <v>0.9691702723338502</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9844274588716438</v>
+        <v>0.984062433731019</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1504</v>
@@ -1053,19 +1053,19 @@
         <v>1536088</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1520318</v>
+        <v>1519381</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1548910</v>
+        <v>1548701</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9675088461932202</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9575759813847473</v>
+        <v>0.9569861534958422</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9755852348075226</v>
+        <v>0.9754535028620364</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3116</v>
@@ -1074,19 +1074,19 @@
         <v>3190940</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3169285</v>
+        <v>3172694</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3209622</v>
+        <v>3208599</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9725256062992534</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9659256053557087</v>
+        <v>0.9669646684102565</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9782194482136364</v>
+        <v>0.9779077658618692</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>10717</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4766</v>
+        <v>5468</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18962</v>
+        <v>18863</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01943510046096825</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008643116066732853</v>
+        <v>0.009916512447148808</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0343877834441008</v>
+        <v>0.03420967736624468</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1199,19 +1199,19 @@
         <v>18380</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11146</v>
+        <v>11090</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28938</v>
+        <v>28371</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03858005247932658</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02339569353529758</v>
+        <v>0.02327724047824658</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0607409481234841</v>
+        <v>0.05955162336491505</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -1220,19 +1220,19 @@
         <v>29097</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20707</v>
+        <v>19845</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40848</v>
+        <v>41612</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02830910731046793</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02014686869374305</v>
+        <v>0.01930815683833225</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03974231656782827</v>
+        <v>0.04048559530999122</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>540691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>532446</v>
+        <v>532545</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>546642</v>
+        <v>545940</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9805648995390317</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9656122165558991</v>
+        <v>0.9657903226337552</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9913568839332672</v>
+        <v>0.9900834875528511</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>434</v>
@@ -1270,19 +1270,19 @@
         <v>458032</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>447474</v>
+        <v>448041</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>465266</v>
+        <v>465322</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9614199475206734</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9392590518765158</v>
+        <v>0.9404483766350848</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9766043064647024</v>
+        <v>0.9767227595217534</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>951</v>
@@ -1291,19 +1291,19 @@
         <v>998723</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>986972</v>
+        <v>986208</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1007113</v>
+        <v>1007975</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9716908926895321</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9602576834321717</v>
+        <v>0.9595144046900088</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.979853131306257</v>
+        <v>0.9806918431616677</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>104411</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>85815</v>
+        <v>84326</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>125707</v>
+        <v>127068</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03186616967076493</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02619086527189032</v>
+        <v>0.02573628406722594</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0383658583692621</v>
+        <v>0.03878117757131101</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>156</v>
@@ -1416,19 +1416,19 @@
         <v>163893</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>141773</v>
+        <v>143395</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>192575</v>
+        <v>194395</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04850047052032394</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04195459116959203</v>
+        <v>0.0424346079365164</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05698838388880054</v>
+        <v>0.05752694927323557</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>256</v>
@@ -1437,19 +1437,19 @@
         <v>268304</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>236502</v>
+        <v>234229</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>302912</v>
+        <v>304141</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04031159862993554</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03553359574388249</v>
+        <v>0.03519206647901196</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04551139818993366</v>
+        <v>0.0456959943105485</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3172132</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3150836</v>
+        <v>3149475</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3190728</v>
+        <v>3192217</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9681338303292351</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9616341416307379</v>
+        <v>0.9612188224286891</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9738091347281097</v>
+        <v>0.9742637159327741</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3141</v>
@@ -1487,19 +1487,19 @@
         <v>3215304</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3186622</v>
+        <v>3184802</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3237424</v>
+        <v>3235802</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9514995294796761</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9430116161111994</v>
+        <v>0.9424730507267643</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9580454088304079</v>
+        <v>0.9575653920634836</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6255</v>
@@ -1508,19 +1508,19 @@
         <v>6387437</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6352829</v>
+        <v>6351600</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6419239</v>
+        <v>6421512</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9596884013700645</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9544886018100666</v>
+        <v>0.9543040056894516</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9644664042561176</v>
+        <v>0.9648079335209883</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>70005</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53693</v>
+        <v>54300</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88027</v>
+        <v>90074</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07189766189239398</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05514462996074342</v>
+        <v>0.05576806159025011</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09040622824690372</v>
+        <v>0.09250865936485475</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>187</v>
@@ -1872,19 +1872,19 @@
         <v>201460</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>177942</v>
+        <v>172404</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>232033</v>
+        <v>227909</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1507143031386974</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1331201957307553</v>
+        <v>0.1289771576540845</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1735867119582044</v>
+        <v>0.1705015083620146</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>250</v>
@@ -1893,19 +1893,19 @@
         <v>271465</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>241081</v>
+        <v>238816</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>308358</v>
+        <v>305882</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1174980704897932</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.104347042742744</v>
+        <v>0.1033667067532697</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1334667844000641</v>
+        <v>0.1323947197871895</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>903673</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>885651</v>
+        <v>883604</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>919985</v>
+        <v>919378</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.928102338107606</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9095937717530959</v>
+        <v>0.9074913406351452</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9448553700392559</v>
+        <v>0.9442319384097498</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1059</v>
@@ -1943,19 +1943,19 @@
         <v>1135239</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1104666</v>
+        <v>1108790</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1158757</v>
+        <v>1164295</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8492856968613026</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8264132880417956</v>
+        <v>0.8294984916379853</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8668798042692447</v>
+        <v>0.8710228423459153</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1903</v>
@@ -1964,19 +1964,19 @@
         <v>2038911</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2002018</v>
+        <v>2004494</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2069295</v>
+        <v>2071560</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8825019295102068</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8665332155999359</v>
+        <v>0.8676052802128105</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8956529572572561</v>
+        <v>0.8966332932467306</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>75715</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60293</v>
+        <v>58990</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>95703</v>
+        <v>96508</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03859090195613603</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03073054432974503</v>
+        <v>0.03006677091375598</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0487787754628191</v>
+        <v>0.049189298304628</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>102</v>
@@ -2089,19 +2089,19 @@
         <v>110835</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91478</v>
+        <v>91454</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132221</v>
+        <v>133357</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06312359421713537</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05209894163005494</v>
+        <v>0.05208547498512605</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07530305219515211</v>
+        <v>0.07595028494007709</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>173</v>
@@ -2110,19 +2110,19 @@
         <v>186550</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>158546</v>
+        <v>162593</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>213519</v>
+        <v>217760</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05017715070401733</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04264478374298238</v>
+        <v>0.04373325822219885</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0574310893769851</v>
+        <v>0.05857177098601973</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1886265</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1866277</v>
+        <v>1865472</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1901687</v>
+        <v>1902990</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.961409098043864</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9512212245371811</v>
+        <v>0.9508107016953721</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9692694556702554</v>
+        <v>0.9699332290862442</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1531</v>
@@ -2160,19 +2160,19 @@
         <v>1645013</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1623627</v>
+        <v>1622491</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1664370</v>
+        <v>1664394</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9368764057828647</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9246969478048478</v>
+        <v>0.9240497150599229</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9479010583699449</v>
+        <v>0.9479145250148739</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3314</v>
@@ -2181,19 +2181,19 @@
         <v>3531278</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3504309</v>
+        <v>3500068</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3559282</v>
+        <v>3555235</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9498228492959827</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9425689106230148</v>
+        <v>0.9414282290139804</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9573552162570177</v>
+        <v>0.9562667417778017</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>13221</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7302</v>
+        <v>7363</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22859</v>
+        <v>23248</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02747583925921214</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01517445840232013</v>
+        <v>0.01530265780748917</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04750561295872226</v>
+        <v>0.04831426471085044</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -2306,19 +2306,19 @@
         <v>16155</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9198</v>
+        <v>8938</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26740</v>
+        <v>26602</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03522486551622391</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02005516417371823</v>
+        <v>0.01948735302887982</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05830453256129007</v>
+        <v>0.05800341232302225</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -2327,19 +2327,19 @@
         <v>29376</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19983</v>
+        <v>19424</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43179</v>
+        <v>42157</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03125738530661375</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02126235752011277</v>
+        <v>0.02066831591813618</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04594425361062327</v>
+        <v>0.04485675906952458</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>467960</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>458322</v>
+        <v>457933</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>473879</v>
+        <v>473818</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9725241607407878</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9524943870412779</v>
+        <v>0.9516857352891498</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9848255415976801</v>
+        <v>0.9846973421925111</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>398</v>
@@ -2377,19 +2377,19 @@
         <v>442476</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>431891</v>
+        <v>432029</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>449433</v>
+        <v>449693</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9647751344837761</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9416954674387102</v>
+        <v>0.9419965876769771</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9799448358262819</v>
+        <v>0.9805126469711201</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>824</v>
@@ -2398,19 +2398,19 @@
         <v>910437</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>896634</v>
+        <v>897656</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>919830</v>
+        <v>920389</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9687426146933863</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9540557463893765</v>
+        <v>0.9551432409304754</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9787376424798871</v>
+        <v>0.9793316840818637</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>158941</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>134163</v>
+        <v>135733</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>189019</v>
+        <v>188067</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04651684880268264</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03926512568699257</v>
+        <v>0.03972478887100894</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05531971052598519</v>
+        <v>0.05504116750903448</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>303</v>
@@ -2523,19 +2523,19 @@
         <v>328450</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>293268</v>
+        <v>293338</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>364281</v>
+        <v>366499</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09249051669509112</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08258342516385825</v>
+        <v>0.08260297362596526</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1025803583782802</v>
+        <v>0.1032048983390771</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>449</v>
@@ -2544,19 +2544,19 @@
         <v>487391</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>442464</v>
+        <v>441156</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>528870</v>
+        <v>532199</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06994685416234921</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06349925954303468</v>
+        <v>0.06331149503383039</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07589968518260212</v>
+        <v>0.07637746075658546</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3257898</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3227820</v>
+        <v>3228772</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3282676</v>
+        <v>3281106</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9534831511973174</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9446802894740146</v>
+        <v>0.9449588324909656</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9607348743130073</v>
+        <v>0.9602752111289911</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2988</v>
@@ -2594,19 +2594,19 @@
         <v>3222728</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3186897</v>
+        <v>3184679</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3257910</v>
+        <v>3257840</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9075094833049089</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8974196416217198</v>
+        <v>0.8967951016609231</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9174165748361418</v>
+        <v>0.917397026374035</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6041</v>
@@ -2615,19 +2615,19 @@
         <v>6480626</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6439147</v>
+        <v>6435818</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6525553</v>
+        <v>6526861</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9300531458376508</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9241003148173977</v>
+        <v>0.9236225392434144</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9365007404569652</v>
+        <v>0.9366885049661696</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>45245</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33517</v>
+        <v>34202</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59301</v>
+        <v>57708</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05997924219799552</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04443131863985701</v>
+        <v>0.04533943426972945</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07861225722345888</v>
+        <v>0.07650101440123114</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>91</v>
@@ -2979,19 +2979,19 @@
         <v>105845</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>87467</v>
+        <v>87353</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>128269</v>
+        <v>127805</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1066401406001231</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0881236235550297</v>
+        <v>0.08800920544936867</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1292321416855651</v>
+        <v>0.1287647651410483</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>139</v>
@@ -3000,19 +3000,19 @@
         <v>151090</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>127320</v>
+        <v>127241</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>174510</v>
+        <v>176139</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0864909166694877</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07288396227730891</v>
+        <v>0.07283873456623169</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09989720985214032</v>
+        <v>0.1008297887587073</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>709102</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>695046</v>
+        <v>696639</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>720830</v>
+        <v>720145</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9400207578020044</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9213877427765411</v>
+        <v>0.9234989855987689</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9555686813601431</v>
+        <v>0.9546605657302706</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>799</v>
@@ -3050,19 +3050,19 @@
         <v>886699</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>864275</v>
+        <v>864739</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>905077</v>
+        <v>905191</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8933598593998768</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8707678583144349</v>
+        <v>0.8712352348589517</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9118763764449703</v>
+        <v>0.9119907945506314</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1513</v>
@@ -3071,19 +3071,19 @@
         <v>1595801</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1572381</v>
+        <v>1570752</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1619571</v>
+        <v>1619650</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9135090833305123</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9001027901478597</v>
+        <v>0.8991702112412918</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9271160377226909</v>
+        <v>0.9271612654337675</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>59167</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44656</v>
+        <v>44705</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77049</v>
+        <v>77075</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02850848967629263</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02151692066313311</v>
+        <v>0.02154026582465154</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0371245994320747</v>
+        <v>0.03713707378470541</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -3196,19 +3196,19 @@
         <v>69972</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54559</v>
+        <v>54597</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>88938</v>
+        <v>87394</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03521066271945386</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02745474904213244</v>
+        <v>0.02747351031635915</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04475440401218513</v>
+        <v>0.04397730118877739</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>116</v>
@@ -3217,19 +3217,19 @@
         <v>129139</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>104737</v>
+        <v>106718</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>153324</v>
+        <v>152601</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03178685183496872</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02578030744277545</v>
+        <v>0.02626792137358623</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03773970592783706</v>
+        <v>0.03756188754672272</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2016245</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1998363</v>
+        <v>1998337</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2030756</v>
+        <v>2030707</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9714915103237074</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9628754005679252</v>
+        <v>0.9628629262152943</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9784830793368666</v>
+        <v>0.978459734175348</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1843</v>
@@ -3267,19 +3267,19 @@
         <v>1917273</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1898307</v>
+        <v>1899851</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1932686</v>
+        <v>1932648</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9647893372805462</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9552455959878148</v>
+        <v>0.9560226988112229</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9725452509578676</v>
+        <v>0.972526489683641</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3742</v>
@@ -3288,19 +3288,19 @@
         <v>3933519</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3909334</v>
+        <v>3910057</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3957921</v>
+        <v>3955940</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9682131481650312</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.962260294072163</v>
+        <v>0.9624381124532777</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9742196925572244</v>
+        <v>0.9737320786264139</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>13169</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6953</v>
+        <v>7589</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22291</v>
+        <v>22528</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0240799341559406</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01271435684255208</v>
+        <v>0.01387656397311137</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04076018929737923</v>
+        <v>0.04119320720347036</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -3413,19 +3413,19 @@
         <v>18833</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12046</v>
+        <v>11696</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30723</v>
+        <v>31075</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03441221837121156</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02201021829176605</v>
+        <v>0.02137125595835699</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0561381568672662</v>
+        <v>0.05678249457189206</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -3434,19 +3434,19 @@
         <v>32002</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21207</v>
+        <v>21989</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45901</v>
+        <v>45106</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02924790007662219</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0193822012816808</v>
+        <v>0.02009684584925239</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04195076855893941</v>
+        <v>0.04122428545546788</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>533717</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>524595</v>
+        <v>524358</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>539933</v>
+        <v>539297</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9759200658440594</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9592398107026208</v>
+        <v>0.9588067927965299</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9872856431574479</v>
+        <v>0.9861234360268886</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>508</v>
@@ -3484,19 +3484,19 @@
         <v>528439</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>516549</v>
+        <v>516197</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>535226</v>
+        <v>535576</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9655877816287884</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9438618431327339</v>
+        <v>0.9432175054281078</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9779897817082339</v>
+        <v>0.9786287440416429</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>997</v>
@@ -3505,19 +3505,19 @@
         <v>1062157</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1048258</v>
+        <v>1049053</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1072952</v>
+        <v>1072170</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9707520999233779</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.95804923144106</v>
+        <v>0.9587757145445317</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9806177987183191</v>
+        <v>0.9799031541507476</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>117581</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95506</v>
+        <v>96676</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>138662</v>
+        <v>141256</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03482184022985717</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02828435920183419</v>
+        <v>0.02863076097467163</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04106500271172032</v>
+        <v>0.04183328080816066</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>171</v>
@@ -3630,19 +3630,19 @@
         <v>194650</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>168259</v>
+        <v>166713</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>226976</v>
+        <v>221636</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05518761399913844</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04770517853488219</v>
+        <v>0.04726672239598229</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06435280501559251</v>
+        <v>0.06283878200306547</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>283</v>
@@ -3651,19 +3651,19 @@
         <v>312231</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>276592</v>
+        <v>277309</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>350330</v>
+        <v>348732</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04522659049084828</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04006423508289906</v>
+        <v>0.04016816991627234</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05074517410178517</v>
+        <v>0.05051371850529016</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3259064</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3237983</v>
+        <v>3235389</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3281139</v>
+        <v>3279969</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9651781597701429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9589349972882795</v>
+        <v>0.9581667191918394</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9717156407981657</v>
+        <v>0.9713692390253283</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3150</v>
@@ -3701,19 +3701,19 @@
         <v>3332412</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3300086</v>
+        <v>3305426</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3358803</v>
+        <v>3360349</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9448123860008616</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9356471949844074</v>
+        <v>0.9371612179969344</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9522948214651178</v>
+        <v>0.9527332776040177</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6252</v>
@@ -3722,19 +3722,19 @@
         <v>6591476</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6553377</v>
+        <v>6554975</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6627115</v>
+        <v>6626398</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9547734095091517</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9492548258982149</v>
+        <v>0.9494862814947099</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.959935764917101</v>
+        <v>0.9598318300837277</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>66029</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52660</v>
+        <v>53426</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81410</v>
+        <v>82066</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1143280029089026</v>
+        <v>0.1143280029089027</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0911801886653434</v>
+        <v>0.09250658991939227</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1409591903451746</v>
+        <v>0.1420965014926011</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>266</v>
@@ -4086,19 +4086,19 @@
         <v>146060</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>129198</v>
+        <v>129837</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>163268</v>
+        <v>163820</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.178399462317595</v>
+        <v>0.1783994623175949</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1578035111921743</v>
+        <v>0.1585850809311282</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1994179348855505</v>
+        <v>0.2000914147133279</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>356</v>
@@ -4107,19 +4107,19 @@
         <v>212089</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>192399</v>
+        <v>192264</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>234842</v>
+        <v>236880</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1518974305062264</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1377956903290954</v>
+        <v>0.1376992206130119</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.168192860425458</v>
+        <v>0.1696525678330664</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>511511</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>496130</v>
+        <v>495474</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>524880</v>
+        <v>524114</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8856719970910973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8590408096548255</v>
+        <v>0.8579034985073989</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9088198113346566</v>
+        <v>0.9074934100806078</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1154</v>
@@ -4157,19 +4157,19 @@
         <v>672664</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>655456</v>
+        <v>654904</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>689526</v>
+        <v>688887</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8216005376824049</v>
+        <v>0.8216005376824048</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8005820651144494</v>
+        <v>0.799908585286672</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8421964888078258</v>
+        <v>0.8414149190688717</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1754</v>
@@ -4178,19 +4178,19 @@
         <v>1184175</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1161422</v>
+        <v>1159384</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1203865</v>
+        <v>1204000</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8481025694937738</v>
+        <v>0.8481025694937736</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8318071395745423</v>
+        <v>0.8303474321669336</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8622043096709047</v>
+        <v>0.8623007793869882</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>90660</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>73901</v>
+        <v>71366</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>113565</v>
+        <v>111873</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04068120012869818</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03316103559356713</v>
+        <v>0.03202343477423773</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05095923884604302</v>
+        <v>0.05019969904385917</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>160</v>
@@ -4303,19 +4303,19 @@
         <v>107998</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>92862</v>
+        <v>90521</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>127697</v>
+        <v>125266</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04977306679733148</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04279722011542889</v>
+        <v>0.04171873419946964</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05885208584553922</v>
+        <v>0.05773166707268296</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>249</v>
@@ -4324,19 +4324,19 @@
         <v>198658</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>172210</v>
+        <v>171151</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>227664</v>
+        <v>229165</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04516641492872257</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03915333473985083</v>
+        <v>0.03891251953143293</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05176122297286652</v>
+        <v>0.05210251610009255</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2137890</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2114985</v>
+        <v>2116677</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2154649</v>
+        <v>2157184</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9593187998713019</v>
+        <v>0.9593187998713016</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9490407611539573</v>
+        <v>0.9498003009561409</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9668389644064329</v>
+        <v>0.9679765652257621</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2759</v>
@@ -4374,19 +4374,19 @@
         <v>2061805</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2042106</v>
+        <v>2044537</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2076941</v>
+        <v>2079282</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9502269332026686</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9411479141544609</v>
+        <v>0.942268332927317</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9572027798845716</v>
+        <v>0.9582812658005302</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4660</v>
@@ -4395,19 +4395,19 @@
         <v>4199695</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4170689</v>
+        <v>4169188</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4226143</v>
+        <v>4227202</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9548335850712774</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9482387770271337</v>
+        <v>0.9478974838999072</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9608466652601495</v>
+        <v>0.961087480468567</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>26895</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18231</v>
+        <v>18146</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39079</v>
+        <v>41081</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03779529214353179</v>
+        <v>0.03779529214353178</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02561949884560094</v>
+        <v>0.02550056811292986</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05491820741569728</v>
+        <v>0.05773172120114055</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -4520,19 +4520,19 @@
         <v>22757</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16364</v>
+        <v>16058</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31078</v>
+        <v>32705</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03096652419261677</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02226759761691125</v>
+        <v>0.02185089850867607</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04229009964178353</v>
+        <v>0.04450437721737242</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -4541,19 +4541,19 @@
         <v>49651</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38229</v>
+        <v>37740</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65313</v>
+        <v>63389</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03432593145344197</v>
+        <v>0.03432593145344196</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0264293827844624</v>
+        <v>0.02609098117085467</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04515355587230658</v>
+        <v>0.04382369435435542</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>684692</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>672508</v>
+        <v>670506</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>693356</v>
+        <v>693441</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9622047078564684</v>
+        <v>0.9622047078564681</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9450817925843027</v>
+        <v>0.9422682787988594</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9743805011543991</v>
+        <v>0.9744994318870701</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>970</v>
@@ -4591,19 +4591,19 @@
         <v>712120</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>703799</v>
+        <v>702172</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>718513</v>
+        <v>718819</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.969033475807383</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9577099003582165</v>
+        <v>0.9554956227826281</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9777324023830889</v>
+        <v>0.9781491014913241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1622</v>
@@ -4612,19 +4612,19 @@
         <v>1396813</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1381151</v>
+        <v>1383075</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1408235</v>
+        <v>1408724</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9656740685465579</v>
+        <v>0.9656740685465581</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9548464441276936</v>
+        <v>0.9561763056456444</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9735706172155377</v>
+        <v>0.9739090188291453</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>183584</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>158384</v>
+        <v>158908</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>211885</v>
+        <v>215600</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05218890780761401</v>
+        <v>0.05218890780761402</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04502505306080998</v>
+        <v>0.04517416198451543</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06023429447292248</v>
+        <v>0.06129038992857087</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>460</v>
@@ -4737,19 +4737,19 @@
         <v>276814</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>253094</v>
+        <v>249515</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>307385</v>
+        <v>303489</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07434440204602642</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06797386214563936</v>
+        <v>0.06701254315753805</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08255472694809381</v>
+        <v>0.08150854982131664</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>668</v>
@@ -4758,19 +4758,19 @@
         <v>460398</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>425947</v>
+        <v>423221</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>497556</v>
+        <v>500099</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06358138550019872</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05882369449324761</v>
+        <v>0.0584471578380849</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06871293397808328</v>
+        <v>0.06906413155656005</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3334093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3305792</v>
+        <v>3302077</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3359293</v>
+        <v>3358769</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.947811092192386</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9397657055270774</v>
+        <v>0.9387096100714292</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9549749469391902</v>
+        <v>0.9548258380154846</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4883</v>
@@ -4808,19 +4808,19 @@
         <v>3446590</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3416019</v>
+        <v>3419915</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3470310</v>
+        <v>3473889</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9256555979539736</v>
+        <v>0.9256555979539737</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9174452730519063</v>
+        <v>0.9184914501786834</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9320261378543607</v>
+        <v>0.9329874568424618</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8036</v>
@@ -4829,19 +4829,19 @@
         <v>6780684</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6743526</v>
+        <v>6740983</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6815135</v>
+        <v>6817861</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9364186144998012</v>
+        <v>0.9364186144998013</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9312870660219169</v>
+        <v>0.9309358684434402</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9411763055067527</v>
+        <v>0.9415528421619154</v>
       </c>
     </row>
     <row r="15">
